--- a/biology/Médecine/François_Delarue/François_Delarue.xlsx
+++ b/biology/Médecine/François_Delarue/François_Delarue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Delarue</t>
+          <t>François_Delarue</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">François Delarue, né à Manzat le 12 août 1788[1] et mort à Paris le 19 février 1842[2], est un médecin français. Considéré de son vivant comme un grand savant, il est l'auteur de nombreux ouvrages sur la médecine ainsi que diverses études historiques et juridiques.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">François Delarue, né à Manzat le 12 août 1788 et mort à Paris le 19 février 1842, est un médecin français. Considéré de son vivant comme un grand savant, il est l'auteur de nombreux ouvrages sur la médecine ainsi que diverses études historiques et juridiques.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Delarue</t>
+          <t>François_Delarue</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Principales publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Dissertation sur la péritonite (1810)
 Avis sur les maladies vénériennes, ou Description par laquelle on peut reconnaître ces terribles maladies, moyens que l'on peut employer pour se guérir (1816)
